--- a/data/gonad.xlsx
+++ b/data/gonad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aimee\OneDrive - University of Cape Town\OneDrive - University of Cape Town\msc_thesis\parechinus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14CE9F98-4FE7-421B-89EA-44892EBAB44A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEFFBF01-9833-4BE9-A277-C4F5D192E5D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3BF2842E-23B2-45C9-BC0E-34C4AA23F989}"/>
   </bookViews>
@@ -174,18 +174,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -203,7 +197,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -521,8 +515,8 @@
   <dimension ref="A1:N140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O36" sqref="O36"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S63" sqref="S63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/data/gonad.xlsx
+++ b/data/gonad.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aimee\OneDrive - University of Cape Town\OneDrive - University of Cape Town\msc_thesis\parechinus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEFFBF01-9833-4BE9-A277-C4F5D192E5D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91CB8398-53B1-46D5-8E1B-BD99481EF613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3BF2842E-23B2-45C9-BC0E-34C4AA23F989}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$M$1:$M$140</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="40">
   <si>
     <t>tank</t>
   </si>
@@ -194,10 +197,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -216,9 +218,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -256,7 +258,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -362,7 +364,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -504,7 +506,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -515,22 +517,23 @@
   <dimension ref="A1:N140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S63" sqref="S63"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O45" sqref="O45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" hidden="1" customWidth="1"/>
-    <col min="4" max="5" width="0" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7265625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="13.08984375" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="12.54296875" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="12.453125" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="11.81640625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="12.453125" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" customWidth="1"/>
+    <col min="11" max="11" width="11.81640625" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
@@ -860,6 +863,9 @@
       <c r="L8" s="1">
         <v>29.933333333333337</v>
       </c>
+      <c r="M8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9">
@@ -1068,6 +1074,9 @@
       <c r="L13" s="1">
         <v>41.633333333333333</v>
       </c>
+      <c r="M13" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14">
@@ -1106,6 +1115,9 @@
       <c r="L14" s="1">
         <v>33.266666666666666</v>
       </c>
+      <c r="M14" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15">
@@ -1431,6 +1443,9 @@
       <c r="L22">
         <v>33.933333333333337</v>
       </c>
+      <c r="M22" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23">
@@ -1465,6 +1480,9 @@
       </c>
       <c r="L23">
         <v>-61.233333333333341</v>
+      </c>
+      <c r="M23" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
@@ -1589,6 +1607,9 @@
       <c r="L26" s="1">
         <v>10.233333333333333</v>
       </c>
+      <c r="M26" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27">
@@ -1668,6 +1689,9 @@
       <c r="L28" s="1">
         <v>15.766666666666666</v>
       </c>
+      <c r="M28" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29">
@@ -1706,6 +1730,9 @@
       <c r="L29">
         <v>16.766666666666669</v>
       </c>
+      <c r="M29" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30">
@@ -2075,6 +2102,9 @@
       <c r="L38" s="1">
         <v>15.433333333333332</v>
       </c>
+      <c r="M38" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39">
@@ -2110,6 +2140,9 @@
       <c r="L39" s="1">
         <v>43.933333333333337</v>
       </c>
+      <c r="M39" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40">
@@ -2274,6 +2307,9 @@
       <c r="L43" s="1">
         <v>12.6</v>
       </c>
+      <c r="M43" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44">
@@ -2319,1005 +2355,1005 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A45">
         <v>1</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" t="s">
         <v>13</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" s="2" t="s">
+      <c r="C45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" t="s">
         <v>15</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45">
         <v>19</v>
       </c>
-      <c r="G45" s="2">
+      <c r="G45">
         <v>26.428999999999998</v>
       </c>
-      <c r="H45" s="2">
+      <c r="H45">
         <v>7.4980000000000002</v>
       </c>
-      <c r="I45" s="2">
+      <c r="I45">
         <v>28.370350751068905</v>
       </c>
-      <c r="J45" s="2">
+      <c r="J45">
         <v>-46</v>
       </c>
-      <c r="K45" s="2">
+      <c r="K45">
         <v>11.866666666666667</v>
       </c>
-      <c r="L45" s="2">
+      <c r="L45">
         <v>27.233333333333334</v>
       </c>
-      <c r="M45" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N45" s="2" t="s">
+      <c r="M45" t="s">
+        <v>36</v>
+      </c>
+      <c r="N45" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A46">
         <v>2</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D46" s="2" t="s">
+      <c r="C46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" t="s">
         <v>17</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46">
         <v>19</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="F46" t="s">
         <v>30</v>
       </c>
-      <c r="G46" s="2">
+      <c r="G46">
         <v>29.187000000000001</v>
       </c>
-      <c r="H46" s="2">
+      <c r="H46">
         <v>5.5819999999999999</v>
       </c>
-      <c r="I46" s="2">
+      <c r="I46">
         <v>19.124952889985266</v>
       </c>
-      <c r="J46" s="2">
+      <c r="J46">
         <v>-48.433333333333337</v>
       </c>
-      <c r="K46" s="2">
+      <c r="K46">
         <v>9.9</v>
       </c>
-      <c r="L46" s="2">
+      <c r="L46">
         <v>18.466666666666665</v>
       </c>
-      <c r="M46" s="2" t="s">
+      <c r="M46" t="s">
         <v>31</v>
       </c>
-      <c r="N46" s="2" t="s">
+      <c r="N46" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A47">
         <v>3</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" t="s">
         <v>13</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D47" s="2" t="s">
+      <c r="C47" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" t="s">
         <v>19</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47">
         <v>19</v>
       </c>
-      <c r="G47" s="2">
+      <c r="G47">
         <v>32.442999999999998</v>
       </c>
-      <c r="H47" s="2">
+      <c r="H47">
         <v>8.4870000000000001</v>
       </c>
-      <c r="I47" s="2">
+      <c r="I47">
         <v>26.15972628918411</v>
       </c>
-      <c r="J47" s="2">
+      <c r="J47">
         <v>-40.300000000000004</v>
       </c>
-      <c r="K47" s="2">
+      <c r="K47">
         <v>7.5666666666666673</v>
       </c>
-      <c r="L47" s="2">
+      <c r="L47">
         <v>27.733333333333334</v>
       </c>
-      <c r="M47" s="2" t="s">
+      <c r="M47" t="s">
         <v>31</v>
       </c>
-      <c r="N47" s="2" t="s">
+      <c r="N47" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A48">
         <v>4</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" t="s">
         <v>16</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D48" s="2" t="s">
+      <c r="C48" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" t="s">
         <v>20</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48">
         <v>19</v>
       </c>
-      <c r="G48" s="2">
+      <c r="G48">
         <v>31.611000000000001</v>
       </c>
-      <c r="H48" s="2">
+      <c r="H48">
         <v>6.5949999999999998</v>
       </c>
-      <c r="I48" s="2">
+      <c r="I48">
         <v>20.862990731074625</v>
       </c>
-      <c r="J48" s="2">
+      <c r="J48">
         <v>-43.533333333333331</v>
       </c>
-      <c r="K48" s="2">
+      <c r="K48">
         <v>23.3</v>
       </c>
-      <c r="L48" s="2">
+      <c r="L48">
         <v>-15.266666666666666</v>
       </c>
-      <c r="M48" s="2" t="s">
+      <c r="M48" t="s">
         <v>31</v>
       </c>
-      <c r="N48" s="2" t="s">
+      <c r="N48" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A49">
         <v>5</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" t="s">
         <v>16</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D49" s="2" t="s">
+      <c r="C49" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" t="s">
         <v>17</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49">
         <v>19</v>
       </c>
-      <c r="G49" s="2">
+      <c r="G49">
         <v>28.925999999999998</v>
       </c>
-      <c r="H49" s="2">
+      <c r="H49">
         <v>4.6120000000000001</v>
       </c>
-      <c r="I49" s="2">
+      <c r="I49">
         <v>15.944133305676555</v>
       </c>
-      <c r="J49" s="2">
+      <c r="J49">
         <v>-35.699999999999996</v>
       </c>
-      <c r="K49" s="2">
+      <c r="K49">
         <v>23.633333333333329</v>
       </c>
-      <c r="L49" s="2">
+      <c r="L49">
         <v>-22.333333333333332</v>
       </c>
-      <c r="M49" s="2" t="s">
+      <c r="M49" t="s">
         <v>31</v>
       </c>
-      <c r="N49" s="2" t="s">
+      <c r="N49" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A50">
         <v>6</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" t="s">
         <v>21</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D50" s="2" t="s">
+      <c r="C50" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" t="s">
         <v>22</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50">
         <v>19</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="F50" t="s">
         <v>29</v>
       </c>
-      <c r="G50" s="2">
+      <c r="G50">
         <v>32.902999999999999</v>
       </c>
-      <c r="H50" s="2">
+      <c r="H50">
         <v>3.206</v>
       </c>
-      <c r="I50" s="2">
+      <c r="I50">
         <v>9.743792359359329</v>
       </c>
-      <c r="J50" s="2">
+      <c r="J50">
         <v>-58.5</v>
       </c>
-      <c r="K50" s="2">
+      <c r="K50">
         <v>24.900000000000002</v>
       </c>
-      <c r="L50" s="2">
+      <c r="L50">
         <v>24.599999999999998</v>
       </c>
-      <c r="M50" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N50" s="2" t="s">
+      <c r="M50" t="s">
+        <v>36</v>
+      </c>
+      <c r="N50" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A51">
         <v>8</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" t="s">
         <v>21</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D51" s="2" t="s">
+      <c r="C51" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" t="s">
         <v>27</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51">
         <v>19</v>
       </c>
-      <c r="G51" s="2">
+      <c r="G51">
         <v>30.436</v>
       </c>
-      <c r="H51" s="2">
+      <c r="H51">
         <v>3.26</v>
       </c>
-      <c r="I51" s="2">
+      <c r="I51">
         <v>10.711000131423313</v>
       </c>
-      <c r="J51" s="2">
+      <c r="J51">
         <v>-53.733333333333327</v>
       </c>
-      <c r="K51" s="2">
+      <c r="K51">
         <v>44.366666666666674</v>
       </c>
-      <c r="L51" s="2">
+      <c r="L51">
         <v>-26.799999999999997</v>
       </c>
-      <c r="M51" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N51" s="2" t="s">
+      <c r="M51" t="s">
+        <v>36</v>
+      </c>
+      <c r="N51" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="2">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A52">
         <v>9</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" t="s">
         <v>21</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D52" s="2" t="s">
+      <c r="C52" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" t="s">
         <v>22</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52">
         <v>19</v>
       </c>
-      <c r="G52" s="2">
+      <c r="G52">
         <v>23.207000000000001</v>
       </c>
-      <c r="H52" s="2">
+      <c r="H52">
         <v>2.52</v>
       </c>
-      <c r="I52" s="2">
+      <c r="I52">
         <v>10.858792605679321</v>
       </c>
-      <c r="J52" s="2">
+      <c r="J52">
         <v>-54.433333333333337</v>
       </c>
-      <c r="K52" s="2">
+      <c r="K52">
         <v>44.833333333333336</v>
       </c>
-      <c r="L52" s="2">
+      <c r="L52">
         <v>-38.633333333333333</v>
       </c>
-      <c r="M52" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N52" s="2" t="s">
+      <c r="M52" t="s">
+        <v>36</v>
+      </c>
+      <c r="N52" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="2">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A53">
         <v>12</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" t="s">
         <v>13</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D53" s="2" t="s">
+      <c r="C53" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" t="s">
         <v>19</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53">
         <v>19</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="F53" t="s">
         <v>29</v>
       </c>
-      <c r="G53" s="2">
+      <c r="G53">
         <v>25.475000000000001</v>
       </c>
-      <c r="H53" s="2">
+      <c r="H53">
         <v>6.5090000000000003</v>
       </c>
-      <c r="I53" s="2">
+      <c r="I53">
         <v>25.550539744847889</v>
       </c>
-      <c r="J53" s="2">
+      <c r="J53">
         <v>-32.066666666666663</v>
       </c>
-      <c r="K53" s="2">
+      <c r="K53">
         <v>5.4333333333333336</v>
       </c>
-      <c r="L53" s="2">
+      <c r="L53">
         <v>33.133333333333333</v>
       </c>
-      <c r="M53" s="2" t="s">
+      <c r="M53" t="s">
         <v>31</v>
       </c>
-      <c r="N53" s="2" t="s">
+      <c r="N53" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="2">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A54">
         <v>13</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" t="s">
         <v>13</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D54" s="2" t="s">
+      <c r="C54" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" t="s">
         <v>15</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54">
         <v>19</v>
       </c>
-      <c r="G54" s="2">
+      <c r="G54">
         <v>24.347000000000001</v>
       </c>
-      <c r="H54" s="2">
+      <c r="H54">
         <v>6.7089999999999996</v>
       </c>
-      <c r="I54" s="2">
+      <c r="I54">
         <v>27.555756356019216</v>
       </c>
-      <c r="J54" s="2">
+      <c r="J54">
         <v>-39.766666666666666</v>
       </c>
-      <c r="K54" s="2">
+      <c r="K54">
         <v>12.133333333333333</v>
       </c>
-      <c r="L54" s="2">
+      <c r="L54">
         <v>34.166666666666664</v>
       </c>
-      <c r="M54" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N54" s="2" t="s">
+      <c r="M54" t="s">
+        <v>36</v>
+      </c>
+      <c r="N54" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="2">
-        <v>14</v>
-      </c>
-      <c r="B55" s="2" t="s">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>14</v>
+      </c>
+      <c r="B55" t="s">
         <v>16</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D55" s="2" t="s">
+      <c r="C55" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" t="s">
         <v>17</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E55">
         <v>19</v>
       </c>
-      <c r="G55" s="2">
+      <c r="G55">
         <v>24.439</v>
       </c>
-      <c r="H55" s="2">
+      <c r="H55">
         <v>4.165</v>
       </c>
-      <c r="I55" s="2">
+      <c r="I55">
         <v>17.042432178076027</v>
       </c>
-      <c r="J55" s="2">
+      <c r="J55">
         <v>-39.300000000000004</v>
       </c>
-      <c r="K55" s="2">
+      <c r="K55">
         <v>20.433333333333334</v>
       </c>
-      <c r="L55" s="2">
+      <c r="L55">
         <v>-15.733333333333333</v>
       </c>
-      <c r="M55" s="2" t="s">
+      <c r="M55" t="s">
         <v>31</v>
       </c>
-      <c r="N55" s="2" t="s">
+      <c r="N55" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="2">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A56">
         <v>15</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" t="s">
         <v>21</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D56" s="2" t="s">
+      <c r="C56" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" t="s">
         <v>27</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E56">
         <v>19</v>
       </c>
-      <c r="G56" s="2">
+      <c r="G56">
         <v>24.885999999999999</v>
       </c>
-      <c r="H56" s="2">
+      <c r="H56">
         <v>2.1440000000000001</v>
       </c>
-      <c r="I56" s="2">
+      <c r="I56">
         <v>8.6152857028047904</v>
       </c>
-      <c r="J56" s="2">
+      <c r="J56">
         <v>-56.533333333333331</v>
       </c>
-      <c r="K56" s="2">
+      <c r="K56">
         <v>30.466666666666669</v>
       </c>
-      <c r="L56" s="2">
+      <c r="L56">
         <v>33.43333333333333</v>
       </c>
-      <c r="M56" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N56" s="2" t="s">
+      <c r="M56" t="s">
+        <v>36</v>
+      </c>
+      <c r="N56" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="2">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A57">
         <v>16</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D57" s="2" t="s">
+      <c r="C57" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" t="s">
         <v>20</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57">
         <v>19</v>
       </c>
-      <c r="F57" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G57" s="2">
+      <c r="F57" t="s">
+        <v>26</v>
+      </c>
+      <c r="G57">
         <v>27.716999999999999</v>
       </c>
-      <c r="H57" s="2">
+      <c r="H57">
         <v>5.3689999999999998</v>
       </c>
-      <c r="I57" s="2">
+      <c r="I57">
         <v>19.370783273803081</v>
       </c>
-      <c r="J57" s="2">
+      <c r="J57">
         <v>-51.733333333333327</v>
       </c>
-      <c r="K57" s="2">
+      <c r="K57">
         <v>36.200000000000003</v>
       </c>
-      <c r="L57" s="2">
+      <c r="L57">
         <v>-30.400000000000002</v>
       </c>
-      <c r="M57" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N57" s="2" t="s">
+      <c r="M57" t="s">
+        <v>36</v>
+      </c>
+      <c r="N57" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="2">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A58">
         <v>17</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" t="s">
         <v>21</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D58" s="2" t="s">
+      <c r="C58" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" t="s">
         <v>22</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E58">
         <v>19</v>
       </c>
-      <c r="G58" s="2">
+      <c r="G58">
         <v>22.335000000000001</v>
       </c>
-      <c r="H58" s="2">
+      <c r="H58">
         <v>2.8759999999999999</v>
       </c>
-      <c r="I58" s="2">
+      <c r="I58">
         <v>12.876650996194314</v>
       </c>
-      <c r="J58" s="2">
+      <c r="J58">
         <v>-44.066666666666663</v>
       </c>
-      <c r="K58" s="2">
+      <c r="K58">
         <v>17.766666666666666</v>
       </c>
-      <c r="L58" s="2">
+      <c r="L58">
         <v>11.399999999999999</v>
       </c>
-      <c r="M58" s="2" t="s">
+      <c r="M58" t="s">
         <v>31</v>
       </c>
-      <c r="N58" s="2" t="s">
+      <c r="N58" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="2">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A59">
         <v>19</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" t="s">
         <v>13</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D59" s="2" t="s">
+      <c r="C59" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" t="s">
         <v>19</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E59">
         <v>19</v>
       </c>
-      <c r="G59" s="2">
+      <c r="G59">
         <v>28.033999999999999</v>
       </c>
-      <c r="H59" s="2">
+      <c r="H59">
         <v>3.88</v>
       </c>
-      <c r="I59" s="2">
+      <c r="I59">
         <v>13.8403367339659</v>
       </c>
-      <c r="J59" s="2">
+      <c r="J59">
         <v>-43.266666666666673</v>
       </c>
-      <c r="K59" s="2">
+      <c r="K59">
         <v>13.299999999999999</v>
       </c>
-      <c r="L59" s="2">
+      <c r="L59">
         <v>27.133333333333336</v>
       </c>
-      <c r="M59" s="2" t="s">
+      <c r="M59" t="s">
         <v>31</v>
       </c>
-      <c r="N59" s="2" t="s">
+      <c r="N59" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="2">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A60">
         <v>22</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" t="s">
         <v>21</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D60" s="2" t="s">
+      <c r="C60" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" t="s">
         <v>22</v>
       </c>
-      <c r="E60" s="2">
+      <c r="E60">
         <v>19</v>
       </c>
-      <c r="G60" s="2">
+      <c r="G60">
         <v>33.134</v>
       </c>
-      <c r="H60" s="2">
+      <c r="H60">
         <v>2.94</v>
       </c>
-      <c r="I60" s="2">
+      <c r="I60">
         <v>8.8730609042071578</v>
       </c>
-      <c r="J60" s="2">
+      <c r="J60">
         <v>-53.1</v>
       </c>
-      <c r="K60" s="2">
+      <c r="K60">
         <v>38.1</v>
       </c>
-      <c r="L60" s="2">
+      <c r="L60">
         <v>-21.133333333333333</v>
       </c>
-      <c r="M60" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N60" s="2" t="s">
+      <c r="M60" t="s">
+        <v>36</v>
+      </c>
+      <c r="N60" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="61" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="2">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A61">
         <v>23</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" t="s">
         <v>16</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D61" s="2" t="s">
+      <c r="C61" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" t="s">
         <v>20</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E61">
         <v>19</v>
       </c>
-      <c r="G61" s="2">
+      <c r="G61">
         <v>28.321000000000002</v>
       </c>
-      <c r="H61" s="2">
+      <c r="H61">
         <v>6.3570000000000002</v>
       </c>
-      <c r="I61" s="2">
+      <c r="I61">
         <v>22.446241305038665</v>
       </c>
-      <c r="J61" s="2">
+      <c r="J61">
         <v>-50.166666666666664</v>
       </c>
-      <c r="K61" s="2">
+      <c r="K61">
         <v>25.266666666666666</v>
       </c>
-      <c r="L61" s="2">
+      <c r="L61">
         <v>46.4</v>
       </c>
-      <c r="M61" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N61" s="2" t="s">
+      <c r="M61" t="s">
+        <v>36</v>
+      </c>
+      <c r="N61" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="2">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A62">
         <v>24</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" t="s">
         <v>13</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D62" s="2" t="s">
+      <c r="C62" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" t="s">
         <v>19</v>
       </c>
-      <c r="E62" s="2">
+      <c r="E62">
         <v>19</v>
       </c>
-      <c r="G62" s="2">
+      <c r="G62">
         <v>27.594999999999999</v>
       </c>
-      <c r="H62" s="2">
+      <c r="H62">
         <v>6.17</v>
       </c>
-      <c r="I62" s="2">
+      <c r="I62">
         <v>22.359123029534338</v>
       </c>
-      <c r="J62" s="2">
+      <c r="J62">
         <v>-47.166666666666664</v>
       </c>
-      <c r="K62" s="2">
+      <c r="K62">
         <v>25.7</v>
       </c>
-      <c r="L62" s="2">
+      <c r="L62">
         <v>2.1666666666666665</v>
       </c>
-      <c r="M62" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N62" s="2" t="s">
+      <c r="M62" t="s">
+        <v>36</v>
+      </c>
+      <c r="N62" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="2">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A63">
         <v>25</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" t="s">
         <v>16</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D63" s="2" t="s">
+      <c r="C63" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" t="s">
         <v>17</v>
       </c>
-      <c r="E63" s="2">
+      <c r="E63">
         <v>19</v>
       </c>
-      <c r="F63" s="2" t="s">
+      <c r="F63" t="s">
         <v>29</v>
       </c>
-      <c r="G63" s="2">
+      <c r="G63">
         <v>22.920999999999999</v>
       </c>
-      <c r="H63" s="2">
+      <c r="H63">
         <v>4.0309999999999997</v>
       </c>
-      <c r="I63" s="2">
+      <c r="I63">
         <v>17.586492735919027</v>
       </c>
-      <c r="J63" s="2">
+      <c r="J63">
         <v>-41.566666666666663</v>
       </c>
-      <c r="K63" s="2">
+      <c r="K63">
         <v>14.133333333333333</v>
       </c>
-      <c r="L63" s="2">
+      <c r="L63">
         <v>30.3</v>
       </c>
-      <c r="M63" s="2" t="s">
+      <c r="M63" t="s">
         <v>31</v>
       </c>
-      <c r="N63" s="2" t="s">
+      <c r="N63" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="2">
-        <v>26</v>
-      </c>
-      <c r="B64" s="2" t="s">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>26</v>
+      </c>
+      <c r="B64" t="s">
         <v>13</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D64" s="2" t="s">
+      <c r="C64" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" t="s">
         <v>15</v>
       </c>
-      <c r="E64" s="2">
+      <c r="E64">
         <v>19</v>
       </c>
-      <c r="G64" s="2">
+      <c r="G64">
         <v>24.855</v>
       </c>
-      <c r="H64" s="2">
+      <c r="H64">
         <v>6.0739999999999998</v>
       </c>
-      <c r="I64" s="2">
+      <c r="I64">
         <v>24.43773888553611</v>
       </c>
-      <c r="J64" s="2">
+      <c r="J64">
         <v>-38.466666666666669</v>
       </c>
-      <c r="K64" s="2">
+      <c r="K64">
         <v>15.199999999999998</v>
       </c>
-      <c r="L64" s="2">
+      <c r="L64">
         <v>-3.2666666666666671</v>
       </c>
-      <c r="M64" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N64" s="2" t="s">
+      <c r="M64" t="s">
+        <v>36</v>
+      </c>
+      <c r="N64" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="65" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="2">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A65">
         <v>27</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" t="s">
         <v>21</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D65" s="2" t="s">
+      <c r="C65" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65" t="s">
         <v>27</v>
       </c>
-      <c r="E65" s="2">
+      <c r="E65">
         <v>19</v>
       </c>
-      <c r="G65" s="2">
+      <c r="G65">
         <v>26.864999999999998</v>
       </c>
-      <c r="H65" s="2">
+      <c r="H65">
         <v>2.4449999999999998</v>
       </c>
-      <c r="I65" s="2">
+      <c r="I65">
         <v>9.1010608598548295</v>
       </c>
-      <c r="J65" s="2">
+      <c r="J65">
         <v>-34.433333333333337</v>
       </c>
-      <c r="K65" s="2">
+      <c r="K65">
         <v>11.666666666666666</v>
       </c>
-      <c r="L65" s="2">
+      <c r="L65">
         <v>23.3</v>
       </c>
-      <c r="M65" s="2" t="s">
+      <c r="M65" t="s">
         <v>31</v>
       </c>
-      <c r="N65" s="2" t="s">
+      <c r="N65" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="66" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="2">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A66">
         <v>28</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" t="s">
         <v>21</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D66" s="2" t="s">
+      <c r="C66" t="s">
+        <v>18</v>
+      </c>
+      <c r="D66" t="s">
         <v>27</v>
       </c>
-      <c r="E66" s="2">
+      <c r="E66">
         <v>19</v>
       </c>
-      <c r="G66" s="2">
+      <c r="G66">
         <v>32.542999999999999</v>
       </c>
-      <c r="H66" s="2">
+      <c r="H66">
         <v>2.2010000000000001</v>
       </c>
-      <c r="I66" s="2">
+      <c r="I66">
         <v>6.7633592477644973</v>
       </c>
-      <c r="J66" s="2">
+      <c r="J66">
         <v>-50.966666666666661</v>
       </c>
-      <c r="K66" s="2">
+      <c r="K66">
         <v>20.700000000000003</v>
       </c>
-      <c r="L66" s="2">
+      <c r="L66">
         <v>-21.333333333333332</v>
       </c>
-      <c r="M66" s="2" t="s">
+      <c r="M66" t="s">
         <v>31</v>
       </c>
-      <c r="N66" s="2" t="s">
+      <c r="N66" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="67" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="2">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A67">
         <v>30</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" t="s">
         <v>13</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D67" s="2" t="s">
+      <c r="C67" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" t="s">
         <v>15</v>
       </c>
-      <c r="E67" s="2">
+      <c r="E67">
         <v>19</v>
       </c>
-      <c r="G67" s="2">
+      <c r="G67">
         <v>28.207999999999998</v>
       </c>
-      <c r="H67" s="2">
+      <c r="H67">
         <v>6.2450000000000001</v>
       </c>
-      <c r="I67" s="2">
+      <c r="I67">
         <v>22.139109472490077</v>
       </c>
-      <c r="J67" s="2">
+      <c r="J67">
         <v>-45.166666666666664</v>
       </c>
-      <c r="K67" s="2">
+      <c r="K67">
         <v>7.3666666666666671</v>
       </c>
-      <c r="L67" s="2">
+      <c r="L67">
         <v>23.8</v>
       </c>
-      <c r="M67" s="2" t="s">
+      <c r="M67" t="s">
         <v>31</v>
       </c>
-      <c r="N67" s="2" t="s">
+      <c r="N67" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="68" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="2">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A68">
         <v>31</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" t="s">
         <v>16</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D68" s="2" t="s">
+      <c r="C68" t="s">
+        <v>18</v>
+      </c>
+      <c r="D68" t="s">
         <v>20</v>
       </c>
-      <c r="E68" s="2">
+      <c r="E68">
         <v>19</v>
       </c>
-      <c r="F68" s="2" t="s">
+      <c r="F68" t="s">
         <v>29</v>
       </c>
-      <c r="G68" s="2">
+      <c r="G68">
         <v>27.248999999999999</v>
       </c>
-      <c r="H68" s="2">
+      <c r="H68">
         <v>5.0490000000000004</v>
       </c>
-      <c r="I68" s="2">
+      <c r="I68">
         <v>18.529120334691186</v>
       </c>
-      <c r="J68" s="2">
+      <c r="J68">
         <v>-47.4</v>
       </c>
-      <c r="K68" s="2">
+      <c r="K68">
         <v>35.533333333333339</v>
       </c>
-      <c r="L68" s="2">
+      <c r="L68">
         <v>-17.266666666666666</v>
       </c>
-      <c r="M68" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N68" s="2" t="s">
+      <c r="M68" t="s">
+        <v>36</v>
+      </c>
+      <c r="N68" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3358,6 +3394,9 @@
       <c r="L69">
         <v>-12.333333333333334</v>
       </c>
+      <c r="M69" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A70">
@@ -3396,6 +3435,9 @@
       <c r="L70">
         <v>5.3666666666666671</v>
       </c>
+      <c r="M70" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A71">
@@ -3434,6 +3476,9 @@
       <c r="L71">
         <v>0.43333333333333429</v>
       </c>
+      <c r="M71" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A72">
@@ -3513,6 +3558,9 @@
       <c r="L73">
         <v>29.633333333333336</v>
       </c>
+      <c r="M73" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A74">
@@ -3592,6 +3640,9 @@
       <c r="L75">
         <v>28.866666666666664</v>
       </c>
+      <c r="M75" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A76">
@@ -3630,6 +3681,9 @@
       <c r="L76">
         <v>28.8</v>
       </c>
+      <c r="M76" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A77">
@@ -3668,6 +3722,9 @@
       <c r="L77">
         <v>25.7</v>
       </c>
+      <c r="M77" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A78">
@@ -3706,6 +3763,9 @@
       <c r="L78">
         <v>-12.633333333333333</v>
       </c>
+      <c r="M78" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A79">
@@ -3785,6 +3845,9 @@
       <c r="L80">
         <v>-4.0666666666666664</v>
       </c>
+      <c r="M80" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81">
@@ -3864,6 +3927,9 @@
       <c r="L82">
         <v>36.433333333333337</v>
       </c>
+      <c r="M82" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83">
@@ -3902,6 +3968,9 @@
       <c r="L83">
         <v>34.4</v>
       </c>
+      <c r="M83" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84">
@@ -3940,6 +4009,9 @@
       <c r="L84">
         <v>-14.166666666666666</v>
       </c>
+      <c r="M84" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85">
@@ -4019,6 +4091,9 @@
       <c r="L86">
         <v>34.533333333333331</v>
       </c>
+      <c r="M86" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87">
@@ -4057,6 +4132,9 @@
       <c r="L87">
         <v>35.5</v>
       </c>
+      <c r="M87" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88">
@@ -4133,6 +4211,9 @@
       <c r="L89">
         <v>33.666666666666664</v>
       </c>
+      <c r="M89" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A90">
@@ -4171,6 +4252,9 @@
       <c r="L90">
         <v>40.93333333333333</v>
       </c>
+      <c r="M90" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A91">
@@ -4209,6 +4293,9 @@
       <c r="L91">
         <v>37.666666666666664</v>
       </c>
+      <c r="M91" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92">
@@ -4285,6 +4372,9 @@
       <c r="L93">
         <v>25.366666666666671</v>
       </c>
+      <c r="M93" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A94">
@@ -4320,6 +4410,9 @@
       <c r="L94">
         <v>16.733333333333334</v>
       </c>
+      <c r="M94" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="95" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95">
@@ -4358,6 +4451,9 @@
       <c r="L95">
         <v>24.533333333333331</v>
       </c>
+      <c r="M95" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="96" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96">
@@ -4396,6 +4492,9 @@
       <c r="L96">
         <v>22.233333333333334</v>
       </c>
+      <c r="M96" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A97">
@@ -4434,6 +4533,9 @@
       <c r="L97">
         <v>27.2</v>
       </c>
+      <c r="M97" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A98">
@@ -4472,6 +4574,9 @@
       <c r="L98">
         <v>19.3</v>
       </c>
+      <c r="M98" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A99">
@@ -4507,6 +4612,9 @@
       <c r="L99">
         <v>44.866666666666667</v>
       </c>
+      <c r="M99" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A100">
@@ -4545,6 +4653,9 @@
       <c r="L100">
         <v>33.766666666666666</v>
       </c>
+      <c r="M100" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A101">
@@ -4582,6 +4693,9 @@
       </c>
       <c r="L101">
         <v>17.266666666666669</v>
+      </c>
+      <c r="M101" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.35">
@@ -4621,6 +4735,9 @@
       <c r="L102">
         <v>5.9333333333333336</v>
       </c>
+      <c r="M102" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A103">
@@ -4659,6 +4776,9 @@
       <c r="L103">
         <v>12.166666666666666</v>
       </c>
+      <c r="M103" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A104">
@@ -4697,6 +4817,9 @@
       <c r="L104">
         <v>2.1</v>
       </c>
+      <c r="M104" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A105">
@@ -4814,6 +4937,9 @@
       <c r="L107">
         <v>41.066666666666663</v>
       </c>
+      <c r="M107" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A108">
@@ -4852,6 +4978,9 @@
       <c r="L108">
         <v>33.300000000000004</v>
       </c>
+      <c r="M108" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A109">
@@ -4928,6 +5057,9 @@
       <c r="L110">
         <v>22</v>
       </c>
+      <c r="M110" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A111">
@@ -4966,6 +5098,9 @@
       <c r="L111">
         <v>21.666666666666668</v>
       </c>
+      <c r="M111" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A112">
@@ -5004,6 +5139,9 @@
       <c r="L112">
         <v>1.0666666666666667</v>
       </c>
+      <c r="M112" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A113">
@@ -5042,6 +5180,9 @@
       <c r="L113">
         <v>-3.8666666666666667</v>
       </c>
+      <c r="M113" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A114">
@@ -5162,6 +5303,9 @@
       <c r="L116">
         <v>39.6</v>
       </c>
+      <c r="M116" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A117">
@@ -5200,6 +5344,9 @@
       <c r="L117">
         <v>33.066666666666663</v>
       </c>
+      <c r="M117" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A118">
@@ -5238,6 +5385,9 @@
       <c r="L118">
         <v>30.866666666666664</v>
       </c>
+      <c r="M118" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="119" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119">
@@ -5276,6 +5426,9 @@
       <c r="L119">
         <v>30.099999999999998</v>
       </c>
+      <c r="M119" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="120" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120">
@@ -5314,6 +5467,9 @@
       <c r="L120">
         <v>24.833333333333332</v>
       </c>
+      <c r="M120" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="121" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121">
@@ -5352,6 +5508,9 @@
       <c r="L121">
         <v>26.733333333333334</v>
       </c>
+      <c r="M121" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A122">
@@ -5390,6 +5549,9 @@
       <c r="L122">
         <v>28.200000000000003</v>
       </c>
+      <c r="M122" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A123">
@@ -5428,6 +5590,9 @@
       <c r="L123">
         <v>9.1333333333333329</v>
       </c>
+      <c r="M123" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A124">
@@ -5466,6 +5631,9 @@
       <c r="L124">
         <v>-5.833333333333333</v>
       </c>
+      <c r="M124" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A125">
@@ -5504,6 +5672,9 @@
       <c r="L125">
         <v>1.8333333333333333</v>
       </c>
+      <c r="M125" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A126">
@@ -5542,6 +5713,9 @@
       <c r="L126">
         <v>21.7</v>
       </c>
+      <c r="M126" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A127">
@@ -5580,6 +5754,9 @@
       <c r="L127">
         <v>27.366666666666664</v>
       </c>
+      <c r="M127" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A128">
@@ -5614,6 +5791,9 @@
       </c>
       <c r="L128">
         <v>6</v>
+      </c>
+      <c r="M128" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.35">
@@ -5732,6 +5912,9 @@
       <c r="L131">
         <v>-26.5</v>
       </c>
+      <c r="M131" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A132">
@@ -5770,6 +5953,9 @@
       <c r="L132">
         <v>32.56666666666667</v>
       </c>
+      <c r="M132" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A133">
@@ -5846,6 +6032,9 @@
       <c r="L134">
         <v>-9.1666666666666661</v>
       </c>
+      <c r="M134" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A135">
@@ -5884,6 +6073,9 @@
       <c r="L135">
         <v>6.333333333333333</v>
       </c>
+      <c r="M135" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A136">
@@ -5922,6 +6114,9 @@
       <c r="L136">
         <v>-4.3</v>
       </c>
+      <c r="M136" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A137">
@@ -5960,6 +6155,9 @@
       <c r="L137">
         <v>-5.7333333333333334</v>
       </c>
+      <c r="M137" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A138">
@@ -5994,6 +6192,9 @@
       </c>
       <c r="L138">
         <v>35.1</v>
+      </c>
+      <c r="M138" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.35">
